--- a/Excel/15. İleri Seviye Excel Programları/Yıllık+ve+Aylık+Gelir+Gider+Programı.xlsx
+++ b/Excel/15. İleri Seviye Excel Programları/Yıllık+ve+Aylık+Gelir+Gider+Programı.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Güncelleme- 2022\Excel Uygulamaları\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samet\Documents\GitHub\Excel_Egitimi\Excel\15. İleri Seviye Excel Programları\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2882F9E4-BECB-4DE3-A11E-D0EC00777D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC50786-950D-4C77-AD99-5067FCB8F08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{99C64CA2-0EDD-4B5A-B6AA-DAA2E0085999}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99C64CA2-0EDD-4B5A-B6AA-DAA2E0085999}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>YILLIK GELİR - GİDER PROGRAMI</t>
   </si>
@@ -90,6 +90,24 @@
   </si>
   <si>
     <t>Ay Seçiniz</t>
+  </si>
+  <si>
+    <t>Maaş</t>
+  </si>
+  <si>
+    <t>Barınma</t>
+  </si>
+  <si>
+    <t>Şubat Ayı Maaş</t>
+  </si>
+  <si>
+    <t>Şubat Kira Bedeli</t>
+  </si>
+  <si>
+    <t>Sigorta</t>
+  </si>
+  <si>
+    <t>ocak ayı sigorta ödemesi</t>
   </si>
 </sst>
 </file>
@@ -149,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -275,6 +293,32 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -293,15 +337,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -310,6 +348,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,23 +454,23 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -487,15 +531,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C29C7917-9735-4027-84B0-0F7F1568F3EA}" name="Tablo1" displayName="Tablo1" ref="A2:D3" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
-  <autoFilter ref="A2:D3" xr:uid="{C29C7917-9735-4027-84B0-0F7F1568F3EA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C29C7917-9735-4027-84B0-0F7F1568F3EA}" name="Tablo1" displayName="Tablo1" ref="A2:D9" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A2:D9" xr:uid="{C29C7917-9735-4027-84B0-0F7F1568F3EA}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2E4508EC-1497-4330-BC4C-087BD3986BDB}" name="Tarih" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{2E4508EC-1497-4330-BC4C-087BD3986BDB}" name="Tarih" dataDxfId="3">
+      <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="2" xr3:uid="{FCA21154-EED2-4E00-B0DF-1D502E51CC89}" name="Kategori" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{F615F261-FB34-4E08-BEF2-64A7DA0C1AD1}" name="Açıklama" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{87AA8824-E5C5-4DEE-9AA5-7B8FCEBD5C0E}" name="Tutar" dataDxfId="0"/>
@@ -505,9 +551,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Teması">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -545,7 +591,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -651,7 +697,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -793,7 +839,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -803,32 +849,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A7FB74-99BD-4012-852E-F7FD0C0040B5}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -841,63 +888,115 @@
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <f ca="1">TODAY()</f>
+        <v>45704</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7">
+        <v>-10000</v>
+      </c>
       <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <f>SUMIF(Tablo1[Tutar],"&gt;0")</f>
-        <v>0</v>
+        <v>54000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <f t="shared" ref="A4" ca="1" si="0">TODAY()</f>
+        <v>45704</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="11">
+        <v>54000</v>
+      </c>
       <c r="F4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <f>SUMIF(Tablo1[Tutar],"&lt;0")</f>
-        <v>0</v>
+        <v>-32000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>45688</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11">
+        <v>-22000</v>
+      </c>
       <c r="F5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <f>SUM(G3:G4)</f>
-        <v>0</v>
+        <v>22000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F7" s="9" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="11"/>
+      <c r="F7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="11"/>
       <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
       <c r="F9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="11" cm="1">
-        <f t="array" ref="G9">SUM(IF(MONTH(Tablo1[Tarih])=$G$8,Tablo1[Tutar]))</f>
-        <v>0</v>
+      <c r="G9" s="9" cm="1">
+        <f t="array" aca="1" ref="G9" ca="1">SUM(IF(MONTH(Tablo1[Tarih])=$G$8,Tablo1[Tutar]))</f>
+        <v>-22000</v>
       </c>
     </row>
   </sheetData>
@@ -906,7 +1005,7 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F7:G7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3">
+  <conditionalFormatting sqref="D3:D9">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -937,11 +1036,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{9AF4221B-6E30-43C2-8ED3-3A44FB1ECA94}">
-      <formula1>44562</formula1>
-      <formula2>44926</formula2>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A9" xr:uid="{9AF4221B-6E30-43C2-8ED3-3A44FB1ECA94}">
+      <formula1>45658</formula1>
+      <formula2>46022</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{6D3FF097-4FB2-475E-B1E5-C33140C653AD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B9" xr:uid="{6D3FF097-4FB2-475E-B1E5-C33140C653AD}">
       <formula1>"Barınma,Yiyecek,Sigorta,Eğlence,Maaş,Prim,Diğer"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8" xr:uid="{840E9962-B25D-4F4A-A450-8DAEE4FBE2F1}">
@@ -949,6 +1048,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A6:A9" calculatedColumn="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
